--- a/form/template.xlsx
+++ b/form/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Share\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E6FEC-D69B-4929-A119-1A4D30FDD369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398F4AC-A7FE-47AB-A40E-23D9564D4291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="28800" windowHeight="15555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Learning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,13 +88,17 @@
     <t>记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -281,6 +285,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,12 +317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,9 +598,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -612,39 +616,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,6 +774,11 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -805,13 +814,13 @@
     <row r="1" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1449,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC421D6-386B-48F1-8BD2-C6D6DF84ED7A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1462,175 +1471,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="4">
         <v>44774</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="13">
+      <c r="C2" s="4">
         <v>44790</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="4">
         <v>44775</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="13">
+      <c r="C3" s="4">
         <v>44791</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="4">
         <v>44776</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="13">
+      <c r="C4" s="4">
         <v>44792</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="4">
         <v>44777</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="13">
+      <c r="C5" s="4">
         <v>44793</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="4">
         <v>44778</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="13">
+      <c r="C6" s="4">
         <v>44794</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="4">
         <v>44779</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="13">
+      <c r="C7" s="4">
         <v>44795</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="4">
         <v>44780</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="13">
+      <c r="C8" s="4">
         <v>44796</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="4">
         <v>44781</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="13">
+      <c r="C9" s="4">
         <v>44797</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="4">
         <v>44782</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="13">
+      <c r="C10" s="4">
         <v>44798</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="4">
         <v>44783</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="13">
+      <c r="C11" s="4">
         <v>44799</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="4">
         <v>44784</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="13">
+      <c r="C12" s="4">
         <v>44800</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="4">
         <v>44785</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="13">
+      <c r="C13" s="4">
         <v>44801</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="4">
         <v>44786</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="13">
+      <c r="C14" s="4">
         <v>44802</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="4">
         <v>44787</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="13">
+      <c r="C15" s="4">
         <v>44803</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="4">
         <v>44788</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="13">
+      <c r="C16" s="4">
         <v>44804</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="4">
         <v>44789</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
     </row>
   </sheetData>

--- a/form/template.xlsx
+++ b/form/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Share\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398F4AC-A7FE-47AB-A40E-23D9564D4291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95F323-6FF8-4385-9C2C-B803905EF4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Weekly Learning" sheetId="1" r:id="rId1"/>
     <sheet name="Book" sheetId="2" r:id="rId2"/>
     <sheet name="Diary" sheetId="3" r:id="rId3"/>
+    <sheet name="毛笔" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,11 +86,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年
+12月
+24日
+周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年
+12月
+26日
+周一</t>
+  </si>
+  <si>
+    <t>2022年
+12月
+25日
+周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年
+12月
+27日
+周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年
+12月
+28日
+周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年
+12月
+29日
+周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年
+12月
+30日
+周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年
+12月
+31日
+周六</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -272,11 +328,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="dotted">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color theme="2"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color theme="2"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="dotted">
+        <color theme="2"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="2"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color theme="2"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="dotted">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="dotted">
+        <color theme="2"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -285,12 +416,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,13 +433,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -317,6 +450,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,57 +740,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="2" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="5" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.625" customWidth="1"/>
+    <col min="17" max="17" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.625" customWidth="1"/>
+    <col min="20" max="20" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -676,8 +853,36 @@
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="12"/>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -690,8 +895,20 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -704,8 +921,20 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -718,8 +947,20 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -732,8 +973,20 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -746,8 +999,20 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -760,8 +1025,20 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -774,19 +1051,31 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
+      <c r="K10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -814,13 +1103,13 @@
     <row r="1" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1456,196 +1745,269 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC421D6-386B-48F1-8BD2-C6D6DF84ED7A}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="84.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="84.375" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.25" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>44774</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4">
-        <v>44790</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44775</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4">
-        <v>44791</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44776</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="4">
-        <v>44792</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>44777</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4">
-        <v>44793</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>44778</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4">
-        <v>44794</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>44779</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4">
-        <v>44795</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>44780</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4">
-        <v>44796</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>44781</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="4">
-        <v>44797</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>44782</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4">
-        <v>44798</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>44783</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4">
-        <v>44799</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>44784</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4">
-        <v>44800</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>44785</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="4">
-        <v>44801</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>44786</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="4">
-        <v>44802</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>44787</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4">
-        <v>44803</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>44788</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4">
-        <v>44804</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>44789</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877F379E-01D1-470C-8ABA-BD23AD75C98E}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="113.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>